--- a/biology/Botanique/Liste_des_plantes_ornementales_aquatiques_au_Venezuela/Liste_des_plantes_ornementales_aquatiques_au_Venezuela.xlsx
+++ b/biology/Botanique/Liste_des_plantes_ornementales_aquatiques_au_Venezuela/Liste_des_plantes_ornementales_aquatiques_au_Venezuela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste de plantes ornementales aquatiques du Venezuela, classée dans l'ordre alphabétique des familles et des genres, est une liste partielle qui comprend notamment des espèces couramment utilisées comme plantes d'aquarium.
 </t>
@@ -511,11 +523,13 @@
           <t>Acanthaceae</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hygrophila corymbosa Lindau[1]
-Hygrophila difformis Blume, 1826[1]
-Hygrophila polysperma Anderson[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hygrophila corymbosa Lindau
+Hygrophila difformis Blume, 1826
+Hygrophila polysperma Anderson</t>
         </is>
       </c>
     </row>
@@ -543,23 +557,25 @@
           <t>Alismataceae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Echinodorus bleheri Rataj en Preslia, 1970 [1]
-Echinodorus berteroi (Spreng.) Fassett.[2]
-Echinodorus bolivianus  (Rusby) Lehtonen &amp; Myllys. [2],[3]
-Echinodorus cordifolius (L.) Griseb.[2]
-Echinodorus floribundus (Seub.) Seub.[2]
-Echinodorus grandiflorus (Cham. Et SHL.) Mich.[4],[2],[3]
-Echinodorus grisebachii Smal.[2]
-Echinodorus horizontalis Rataj.[2]
-Echinodorus longipetalus Micheli in A. &amp; C. DC. [2]&gt;
-Echinodorus parviflorus Rataj, 1970[5],[1]
-Echinodorus subalatus Grisebach, 1866[5],[2]
-Echinodorus scraber Rataj, 1970[5],[2]
-Echinodorus tenellum (Mart. ex Schult. &amp; Schult. f.) Britton.[2],[3]
-Echinodorus trialatus Fassett. [2]
-Sagittaria graminea Michx.[1]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Echinodorus bleheri Rataj en Preslia, 1970 
+Echinodorus berteroi (Spreng.) Fassett.
+Echinodorus bolivianus  (Rusby) Lehtonen &amp; Myllys. ,
+Echinodorus cordifolius (L.) Griseb.
+Echinodorus floribundus (Seub.) Seub.
+Echinodorus grandiflorus (Cham. Et SHL.) Mich.
+Echinodorus grisebachii Smal.
+Echinodorus horizontalis Rataj.
+Echinodorus longipetalus Micheli in A. &amp; C. DC. &gt;
+Echinodorus parviflorus Rataj, 1970,
+Echinodorus subalatus Grisebach, 1866,
+Echinodorus scraber Rataj, 1970,
+Echinodorus tenellum (Mart. ex Schult. &amp; Schult. f.) Britton.,
+Echinodorus trialatus Fassett. 
+Sagittaria graminea Michx.</t>
         </is>
       </c>
     </row>
@@ -587,9 +603,11 @@
           <t>Araceae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cryptocoryne affinis Brown,[1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cryptocoryne affinis Brown,</t>
         </is>
       </c>
     </row>
@@ -617,9 +635,11 @@
           <t>Araliaceae</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Hydrocotyle leucocephala Chamisso &amp; Schlechtendal, 1826[5],[1]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hydrocotyle leucocephala Chamisso &amp; Schlechtendal, 1826,</t>
         </is>
       </c>
     </row>
@@ -647,9 +667,11 @@
           <t>Haloragaceae</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Myriophyllum mattogrossense Hoenne, 1915[5]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Myriophyllum mattogrossense Hoenne, 1915</t>
         </is>
       </c>
     </row>
@@ -677,9 +699,11 @@
           <t>Holagoraceae</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Hottonia palustris L., 1753[5]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hottonia palustris L., 1753</t>
         </is>
       </c>
     </row>
@@ -707,12 +731,14 @@
           <t>Hydrocharitaceae</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Egeria densa Planchon, 1849[5]
-Elodea canadensis Rich[6]
-Elodea granatensis Rich[6]
-Vallisneria americana Michx[1]</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Egeria densa Planchon, 1849
+Elodea canadensis Rich
+Elodea granatensis Rich
+Vallisneria americana Michx</t>
         </is>
       </c>
     </row>
@@ -740,9 +766,11 @@
           <t>Lythraceae</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Rotala rotundifolia Koehne, 1849[1]</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Rotala rotundifolia Koehne, 1849</t>
         </is>
       </c>
     </row>
@@ -770,16 +798,18 @@
           <t>Nymphaeaceae</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Cabomba piauhyensis Gendenre, 1844[5],[1]
-Nymphaea amazonum  L.[6],[7]
-Nymphaea caerulea  ZUCC.[6],[7]
-Nymphoides humboldtiana  (Kunth) Kuntze[8],[7]
-Nymphaea lotus  L.[6],[7]
-Nymphaea micranta  Guill. &amp; Perr.[6],[7]
-Nymphaea novogranatensis  Wiersema[8],[7]
-Victoria regia LINDL.[6],[7]</t>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cabomba piauhyensis Gendenre, 1844,
+Nymphaea amazonum  L.,
+Nymphaea caerulea  ZUCC.,
+Nymphoides humboldtiana  (Kunth) Kuntze,
+Nymphaea lotus  L.,
+Nymphaea micranta  Guill. &amp; Perr.,
+Nymphaea novogranatensis  Wiersema,
+Victoria regia LINDL.,</t>
         </is>
       </c>
     </row>
@@ -807,15 +837,17 @@
           <t>Onagraceae</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Ludwigia erecta (L. ) Hara[8]
-Ludwigia helmintorrhiza (Mart.) Hara[8]
-Ludwigia inclinata (L.f. ) Raven[8]
-Ludwigia octovalvis (Jacq.) Raven[8],[3]
-Ludwigia peploides Raven(H.B.K.) [8]
-Ludwigia repens J.R. Forst, 1849[1]
-Ludwigia sedoides ( H.&amp; B.) Hara[8]</t>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ludwigia erecta (L. ) Hara
+Ludwigia helmintorrhiza (Mart.) Hara
+Ludwigia inclinata (L.f. ) Raven
+Ludwigia octovalvis (Jacq.) Raven,
+Ludwigia peploides Raven(H.B.K.) 
+Ludwigia repens J.R. Forst, 1849
+Ludwigia sedoides ( H.&amp; B.) Hara</t>
         </is>
       </c>
     </row>
@@ -843,9 +875,11 @@
           <t>Plantaginaceae</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Bacopa caroliniana B.L. Robins, [1]</t>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bacopa caroliniana B.L. Robins, </t>
         </is>
       </c>
     </row>
@@ -873,9 +907,11 @@
           <t>Parkeriaceae</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Ceratopteris thalictroides Brogniart, 1821[5]</t>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Ceratopteris thalictroides Brogniart, 1821</t>
         </is>
       </c>
     </row>
@@ -903,9 +939,11 @@
           <t>Polypodiaceae</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Microsorum pteropus Blume, 1933[1]</t>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Microsorum pteropus Blume, 1933</t>
         </is>
       </c>
     </row>
@@ -933,9 +971,11 @@
           <t>Saururaceae</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Saururus cernuus L.[1]</t>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Saururus cernuus L.</t>
         </is>
       </c>
     </row>
@@ -963,9 +1003,11 @@
           <t>Scrofulariaceae</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Bacopa Nonieri Pennell, 1891[5]</t>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Bacopa Nonieri Pennell, 1891</t>
         </is>
       </c>
     </row>
